--- a/Tags/Documents/Test Cases/Order Function Testing_10-1-2016.xlsx
+++ b/Tags/Documents/Test Cases/Order Function Testing_10-1-2016.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>Order food</t>
   </si>
@@ -161,6 +161,54 @@
 9. Bàn 3 trở lại trạng thái trống, không hiển thị thời gian
 10. Báo cáo hiển thị bàn 3 đã bị hủy, đúng note</t>
   </si>
+  <si>
+    <t>Add new, edit, delete food | add new, edit, delete table</t>
+  </si>
+  <si>
+    <t>1. Thêm món cho bàn 1
+2. Vào supervisor thêm món "Trà đá vỉa hè" 5k và "Trà chanh chém gió" 10k
+3. Đặt thêm món "Trà đá vỉa hè" cho bàn 1
+4. Đặt thêm món "Trà chanh chém gió" cho bàn 1
+5. Vào supervisor sửa món "Trà chanh chém gió" thành "Trà chanh chém gió nhè nhẹ" và giá từ 10k lên 15k
+6. Thanh toán và Xuất báo cáo</t>
+  </si>
+  <si>
+    <t>3. Món "Trà đá vỉa hè" hiển thị đúng trên order của bàn 1 và trong chức năng đặt món
+4. Món "Trà chanh chém gió" hiển thị đúng trên order của bàn 1 và trong chức năng đặt món
+5. Order của bàn 1 hiển thị đúng tên và số tiền
+6. Báo cáo xuất chính xác nội dung của đặt món của bàn 1</t>
+  </si>
+  <si>
+    <t>1. Thêm món cho bàn 1 có món "Trà đá vỉa hè" và "Trà chanh chém gió nhè nhẹ"
+2. Vào supervisor xóa món "Trà đá vỉa hè" và đổi tên "Trà chanh chém gió nhè nhè" thành "Trà chanh chém gió", 15k -&gt; 10k
+3. Xuất báo cáo</t>
+  </si>
+  <si>
+    <t>2. Món trà đá vỉa hẻ đã xóa, tiền của món trà chanh chém gió giảm
+3. Báo cáo hiển thị đúng nội dung</t>
+  </si>
+  <si>
+    <t>1. Thêm bàn 101
+2. Đặt món cho bàn 101
+3. Xuất báo cáo</t>
+  </si>
+  <si>
+    <t>3. Báo cáo hiển thị nội dung của bàn 101</t>
+  </si>
+  <si>
+    <t>1. Xóa bàn 101
+2. Xuất báo cáo</t>
+  </si>
+  <si>
+    <t>2. Báo cáo vẫn phải hiển thị nội dung của bàn 101</t>
+  </si>
+  <si>
+    <t>- Đặt món A -&gt; vào supervisor xóa món A -&gt; Order hiện ra một order detail trắng ==&gt; Add state for food (enable | disable)</t>
+  </si>
+  <si>
+    <t>- Xóa bàn 11 -&gt; xuất báo cáo bị mất bàn 11 ==&gt; add state for table
+- Bàn 11 bị xóa nhưng chưa được reload</t>
+  </si>
 </sst>
 </file>
 
@@ -175,7 +223,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -185,6 +233,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -201,24 +255,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -232,6 +283,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -513,314 +573,331 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:K26"/>
+  <dimension ref="A3:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="6"/>
+    <col min="1" max="1" width="9.140625" style="5"/>
     <col min="6" max="6" width="32" customWidth="1"/>
-    <col min="7" max="7" width="45.28515625" style="10" customWidth="1"/>
+    <col min="7" max="7" width="45.28515625" style="9" customWidth="1"/>
     <col min="8" max="8" width="25.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="9" t="s">
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="H4" s="6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="291.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
+    <row r="5" spans="1:8" ht="291.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
         <v>1</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="5" t="s">
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="171.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
+    <row r="6" spans="1:8" ht="171.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
         <v>2</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="5" t="s">
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
+    <row r="7" spans="1:8" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
         <v>3</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="5" t="s">
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
+    <row r="8" spans="1:8" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
         <v>4</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="5" t="s">
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="6">
+    <row r="9" spans="1:8" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
         <v>5</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="5" t="s">
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="99" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="6">
+    <row r="10" spans="1:8" ht="99" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
         <v>6</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="5" t="s">
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="100.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="6">
+    <row r="11" spans="1:8" ht="100.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
         <v>7</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="5" t="s">
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="255" x14ac:dyDescent="0.25">
-      <c r="A12" s="6">
+    <row r="12" spans="1:8" ht="255" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
         <v>8</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="5" t="s">
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="6">
-        <v>9</v>
-      </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="5"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="6">
-        <v>10</v>
-      </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="5"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="6">
-        <v>11</v>
-      </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="5"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="6">
-        <v>12</v>
-      </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="5"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="6">
-        <v>13</v>
-      </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="5"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="6">
-        <v>14</v>
-      </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="5"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="6">
-        <v>15</v>
-      </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="5"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="6">
-        <v>16</v>
-      </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="5"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="6">
-        <v>17</v>
-      </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="5"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="6">
-        <v>18</v>
-      </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="5"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="5"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="5"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="5"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="5"/>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="4"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+    </row>
+    <row r="15" spans="1:8" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
+        <v>1</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="5">
+        <v>2</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H16" s="12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="83.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="5">
+        <v>3</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H17" s="12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="5">
+        <v>4</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="5">
+        <v>5</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="4"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="5">
+        <v>6</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="4"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="5">
+        <v>7</v>
+      </c>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="4"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="5">
+        <v>8</v>
+      </c>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="4"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="4"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="4"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="4"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="24">
@@ -841,8 +918,8 @@
     <mergeCell ref="B11:F11"/>
     <mergeCell ref="B12:F12"/>
     <mergeCell ref="B13:F13"/>
-    <mergeCell ref="B14:F14"/>
-    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="A3:H3"/>
     <mergeCell ref="B4:F4"/>
     <mergeCell ref="B5:F5"/>
     <mergeCell ref="B6:F6"/>

--- a/Tags/Documents/Test Cases/Order Function Testing_10-1-2016.xlsx
+++ b/Tags/Documents/Test Cases/Order Function Testing_10-1-2016.xlsx
@@ -1,22 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Workspace\WebApplication\Tags\Documents\Test Cases\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="11970" windowHeight="7380"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
   <si>
     <t>Order food</t>
   </si>
@@ -39,6 +34,119 @@
   </si>
   <si>
     <t>Result</t>
+  </si>
+  <si>
+    <t>1. Bàn 2 ở trạng thái trống
+2. Thực hiện đặt món giống bàn 1
+3. Mở lại bàn 2 sau khi đặt món
+4. Hủy toàn bộ món C và đặt lại món cho món B
+5. Menu nhân viên pha chế, xong món B
+6. Nhân viên pha chế hủy món D và xác nhận xong hết
+7. Thanh toán bàn 2, xuất báo cáo</t>
+  </si>
+  <si>
+    <t>4. Danh sách các món hiển thị đúng với đúng số tiền. Menu nhân viên pha chế hiển thị đúng với món C đã bị hủy, có thêm món B
+5. Hiển thị thông bán món B của bàn 2 đã xong. 
+6. Hiển thị thông báo món bàn 2 đã xong, danh sách các món trong đặt món hiển thị chính xác số tiền, danh sách các món, trạng thái các món. Danh sách trong chức năng thanh toán cũng tương tự. Bàn ở trạng thái đã thanh toán
+7. Xuất báo chỉ có bàn 2 với số lượng, tiền, note, tên nhân viên chính xác</t>
+  </si>
+  <si>
+    <t>1. Bàn 3 ở trạng thái trống
+2. Tiến hành đặt một số món
+3. Đợi 3 phút
+4. Tiến hành chuyển toàn bộ bàn 3 sang bàn 2
+5. Hủy toàn bộ các món của bàn 3 trong chức năng đặt món
+6. Xuất báo cáo</t>
+  </si>
+  <si>
+    <t>4. Bàn 2 chuyển sang trạng thái đợi với danh sách các món đúng và thời gian là 3 phút. Bàn 3 ở trạng thái trống, đợi 2 phút ko thấy hiển thị thời gian
+5. Hiển thị thông báo đã hủy đặt món ở bàn 3, đợi 2 phút ko thấy hiển thị thời gian, bàn ở trạng thái trống
+6. Hiển thị bàn 3 đã bị hủy</t>
+  </si>
+  <si>
+    <t>1. Đặt món lại ở bàn 3
+2. Tiến hành hủy toàn bộ món ở bàn 3 trong menu nhân viên pha chế
+3. Xuất báo cáo</t>
+  </si>
+  <si>
+    <t>2. Bàn 2 hiển thị trạng thái trống, không hiển thị thời gian đợi
+3. Báo cáo hiển thị order thứ 2 của bàn 3 đã bị hủy</t>
+  </si>
+  <si>
+    <t>1. Đặt món lại ở bàn 3
+2. Tiến hành thanh toán bàn 3
+3. Xuất báo cáo</t>
+  </si>
+  <si>
+    <t>2. Bàn 3 ở trạng thái đã thanh toán, không hiển thị thời gian, không hiển thị lại order của bàn 3
+3. Báo cáo hiển thị order thứ 3 của bàn 3 đã thanh toán với đúng số tiền</t>
+  </si>
+  <si>
+    <t>1. Chuyển bàn 1 sang bàn 3
+2. Tách một số món của bàn 3 sang bàn 1</t>
+  </si>
+  <si>
+    <t>1. Bàn 1 ở trạng thái trống, bàn 3 ở trạng thái đợi, hiển thị đúng thời gian, đợi thêm 2 phút thời gian được cộng thêm
+2. Bàn 1 và 3 hiển thị trạng thái đợi, đúng số lượng các món và đúng số tiền. Đợi thêm 2 phút, thời gian được tăng lên đúng</t>
+  </si>
+  <si>
+    <t>1. Đặt món bàn 2
+2. Chuyển một toàn bộ các món của bàn 2 sang bàn 1 và bàn 3
+3. Thanh toán bàn 1
+4. Xuất báo cáo</t>
+  </si>
+  <si>
+    <t>2. Bàn 2 chuyển sang trạng thái trống, không hiển thị thời gian, bàn 1 và 3 tăng số lượng đặt món
+3. Bàn 1 được thanh toán, trạng thái là đã thanh toán, ko hiển thị thời gian
+4. Báo cáo hiển thị bàn 1 đã thanh toán đúng số tiền, đúng số lượng</t>
+  </si>
+  <si>
+    <t>1. Đặt thêm món ở bàn 3 và viết thêm note
+2. Trở lại bàn 3 sửa note
+3. Nhân viên pha chế viết thêm note và hủy một món ở bàn 3 -&gt; xác nhận xong hết
+4. Bàn 3 tiếp tục đặt thêm món và sửa note
+5. Bàn 3 xác nhận xong hết
+6. Nhân viên phụ vụ vào bàn 3 chuyển một số món sang bàn 1 để thanh toán riêng 
+7. Xác nhận thanh toán bàn 1
+8. Xuất báo cáo
+9. Hủy đặt món ở bàn 3
+10. Xuất báo cáo</t>
+  </si>
+  <si>
+    <t>1. Các món được thêm chính xác với số lượng tiền hiển thị đúng. Note hiển thị đúng
+2. Note của bàn 3 trong menu nhân viên pha chế hiển thị chính xác
+3. Note của bàn 3 đã thay đổi trong đặt món và thanh toán
+4. Đặt món của bàn 3 hiển thị lại trên menu nhân viên pha chết, trạng thái đợi, đợi 1 phút thấy hiển thị thời gian
+6. Bàn 1 hiển thị trạng thái chưa thanh toán
+7. Chức năng thanh toán hiển hị đúng các món của bàn 1
+8. Báo với bàn 1 đã thanh toán, hiển thị đúng số tiền
+9. Bàn 3 trở lại trạng thái trống, không hiển thị thời gian
+10. Báo cáo hiển thị bàn 3 đã bị hủy, đúng note</t>
+  </si>
+  <si>
+    <t>Add new food, we lost CANCELED Order details</t>
+  </si>
+  <si>
+    <t>Add new food, the waiting time is rết to zẻo</t>
+  </si>
+  <si>
+    <t>Hủy tất cả các món của order element, order list bị clear, Thỉnh thoảng không thể ấn "Xong hết"</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>- Cancel order, save name of staff as who confirm paid
+- Change table, if create new order, save creator name. Copy who confirm all finish</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>FIXed</t>
+  </si>
+  <si>
+    <t>Ok</t>
   </si>
   <si>
     <t>1. Bàn 1 ở trạng thái trống
@@ -54,7 +162,7 @@
 7. Thêm món A số lượng 3
 8. Thêm món E 10K, SL 2
 9. Xóa món E
-10. Xóa món B
+10.
 11. Ghi thêm note "món A ko đường"
 12. Xác nhận đặt món
 13. Mở lại bàn kiểm tra
@@ -68,105 +176,17 @@
 7. Số lượng món A là 4, tổng tiền là 320k
 8. Tổng tiền là 340K
 9. Tổng tiền là 320K
-10. Tổng tiền 280k
+10. 
 12. Danh sách món trên menu nhân viên pha chế hiển thị đúng, có dòng note "món A ko đường"
 13. Bàn hiển thị Order đúng số tiền, đúng danh sách các món, đúng note, hiển thị thông bán 1 đã đặt món
 14. Bàn hiển thị đang đợi 2 phút</t>
-  </si>
-  <si>
-    <t>1. Bàn 2 ở trạng thái trống
-2. Thực hiện đặt món giống bàn 1
-3. Mở lại bàn 2 sau khi đặt món
-4. Hủy toàn bộ món C và đặt lại món cho món B
-5. Menu nhân viên pha chế, xong món B
-6. Nhân viên pha chế hủy món D và xác nhận xong hết
-7. Thanh toán bàn 2, xuất báo cáo</t>
-  </si>
-  <si>
-    <t>4. Danh sách các món hiển thị đúng với đúng số tiền. Menu nhân viên pha chế hiển thị đúng với món C đã bị hủy, có thêm món B
-5. Hiển thị thông bán món B của bàn 2 đã xong. 
-6. Hiển thị thông báo món bàn 2 đã xong, danh sách các món trong đặt món hiển thị chính xác số tiền, danh sách các món, trạng thái các món. Danh sách trong chức năng thanh toán cũng tương tự. Bàn ở trạng thái đã thanh toán
-7. Xuất báo chỉ có bàn 2 với số lượng, tiền, note, tên nhân viên chính xác</t>
-  </si>
-  <si>
-    <t>1. Bàn 3 ở trạng thái trống
-2. Tiến hành đặt một số món
-3. Đợi 3 phút
-4. Tiến hành chuyển toàn bộ bàn 3 sang bàn 2
-5. Hủy toàn bộ các món của bàn 3 trong chức năng đặt món
-6. Xuất báo cáo</t>
-  </si>
-  <si>
-    <t>4. Bàn 2 chuyển sang trạng thái đợi với danh sách các món đúng và thời gian là 3 phút. Bàn 3 ở trạng thái trống, đợi 2 phút ko thấy hiển thị thời gian
-5. Hiển thị thông báo đã hủy đặt món ở bàn 3, đợi 2 phút ko thấy hiển thị thời gian, bàn ở trạng thái trống
-6. Hiển thị bàn 3 đã bị hủy</t>
-  </si>
-  <si>
-    <t>1. Đặt món lại ở bàn 3
-2. Tiến hành hủy toàn bộ món ở bàn 3 trong menu nhân viên pha chế
-3. Xuất báo cáo</t>
-  </si>
-  <si>
-    <t>2. Bàn 2 hiển thị trạng thái trống, không hiển thị thời gian đợi
-3. Báo cáo hiển thị order thứ 2 của bàn 3 đã bị hủy</t>
-  </si>
-  <si>
-    <t>1. Đặt món lại ở bàn 3
-2. Tiến hành thanh toán bàn 3
-3. Xuất báo cáo</t>
-  </si>
-  <si>
-    <t>2. Bàn 3 ở trạng thái đã thanh toán, không hiển thị thời gian, không hiển thị lại order của bàn 3
-3. Báo cáo hiển thị order thứ 3 của bàn 3 đã thanh toán với đúng số tiền</t>
-  </si>
-  <si>
-    <t>1. Chuyển bàn 1 sang bàn 3
-2. Tách một số món của bàn 3 sang bàn 1</t>
-  </si>
-  <si>
-    <t>1. Bàn 1 ở trạng thái trống, bàn 3 ở trạng thái đợi, hiển thị đúng thời gian, đợi thêm 2 phút thời gian được cộng thêm
-2. Bàn 1 và 3 hiển thị trạng thái đợi, đúng số lượng các món và đúng số tiền. Đợi thêm 2 phút, thời gian được tăng lên đúng</t>
-  </si>
-  <si>
-    <t>1. Đặt món bàn 2
-2. Chuyển một toàn bộ các món của bàn 2 sang bàn 1 và bàn 3
-3. Thanh toán bàn 1
-4. Xuất báo cáo</t>
-  </si>
-  <si>
-    <t>2. Bàn 2 chuyển sang trạng thái trống, không hiển thị thời gian, bàn 1 và 3 tăng số lượng đặt món
-3. Bàn 1 được thanh toán, trạng thái là đã thanh toán, ko hiển thị thời gian
-4. Báo cáo hiển thị bàn 1 đã thanh toán đúng số tiền, đúng số lượng</t>
-  </si>
-  <si>
-    <t>1. Đặt thêm món ở bàn 3 và viết thêm note
-2. Trở lại bàn 3 sửa note
-3. Nhân viên pha chế viết thêm note và hủy một món ở bàn 3 -&gt; xác nhận xong hết
-4. Bàn 3 tiếp tục đặt thêm món và sửa note
-5. Bàn 3 xác nhận xong hết
-6. Nhân viên phụ vụ vào bàn 3 chuyển một số món sang bàn 1 để thanh toán riêng 
-7. Xác nhận thanh toán bàn 1
-8. Xuất báo cáo
-9. Hủy đặt món ở bàn 3
-10. Xuất báo cáo</t>
-  </si>
-  <si>
-    <t>1. Các món được thêm chính xác với số lượng tiền hiển thị đúng. Note hiển thị đúng
-2. Note của bàn 3 trong menu nhân viên pha chế hiển thị chính xác
-3. Note của bàn 3 đã thay đổi trong đặt món và thanh toán
-4. Đặt món của bàn 3 hiển thị lại trên menu nhân viên pha chết, trạng thái đợi, đợi 1 phút thấy hiển thị thời gian
-6. Bàn 1 hiển thị trạng thái chưa thanh toán
-7. Chức năng thanh toán hiển hị đúng các món của bàn 1
-8. Báo với bàn 1 đã thanh toán, hiển thị đúng số tiền
-9. Bàn 3 trở lại trạng thái trống, không hiển thị thời gian
-10. Báo cáo hiển thị bàn 3 đã bị hủy, đúng note</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -201,36 +221,39 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -293,7 +316,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -328,7 +351,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -505,330 +528,373 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A3:K26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="6"/>
+    <col min="1" max="1" width="9.140625" style="2"/>
     <col min="6" max="6" width="32" customWidth="1"/>
-    <col min="7" max="7" width="45.28515625" style="10" customWidth="1"/>
+    <col min="7" max="7" width="45.28515625" style="5" customWidth="1"/>
     <col min="8" max="8" width="25.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:11">
+      <c r="A3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="9" t="s">
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="H4" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" ht="291.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
+      <c r="K4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="291.75" customHeight="1">
+      <c r="A5" s="2">
         <v>1</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="171.75" customHeight="1">
+      <c r="A6" s="2">
+        <v>2</v>
+      </c>
+      <c r="B6" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="5" t="s">
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" ht="171.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
-        <v>2</v>
-      </c>
-      <c r="B6" s="2" t="s">
+      <c r="H6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="113.25" customHeight="1">
+      <c r="A7" s="2">
+        <v>3</v>
+      </c>
+      <c r="B7" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="5" t="s">
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
-        <v>3</v>
-      </c>
-      <c r="B7" s="2" t="s">
+      <c r="H7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="59.25" customHeight="1">
+      <c r="A8" s="2">
+        <v>4</v>
+      </c>
+      <c r="B8" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="5" t="s">
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
-        <v>4</v>
-      </c>
-      <c r="B8" s="2" t="s">
+      <c r="H8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="58.5" customHeight="1">
+      <c r="A9" s="2">
+        <v>5</v>
+      </c>
+      <c r="B9" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="5" t="s">
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="6">
-        <v>5</v>
-      </c>
-      <c r="B9" s="2" t="s">
+      <c r="H9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="99" customHeight="1">
+      <c r="A10" s="2">
+        <v>6</v>
+      </c>
+      <c r="B10" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="5" t="s">
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" ht="99" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="6">
-        <v>6</v>
-      </c>
-      <c r="B10" s="2" t="s">
+      <c r="H10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="100.5" customHeight="1">
+      <c r="A11" s="2">
+        <v>7</v>
+      </c>
+      <c r="B11" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="5" t="s">
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" ht="100.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="6">
-        <v>7</v>
-      </c>
-      <c r="B11" s="2" t="s">
+      <c r="H11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="255">
+      <c r="A12" s="2">
+        <v>8</v>
+      </c>
+      <c r="B12" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="5" t="s">
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" ht="255" x14ac:dyDescent="0.25">
-      <c r="A12" s="6">
-        <v>8</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="6">
+      <c r="H12" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="K12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="2">
         <v>9</v>
       </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="5"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="6">
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="2">
         <v>10</v>
       </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="5"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="6">
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="2">
         <v>11</v>
       </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="5"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="6">
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="2">
         <v>12</v>
       </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="5"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="6">
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="2">
         <v>13</v>
       </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="5"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="6">
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="2">
         <v>14</v>
       </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="5"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="6">
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="2">
         <v>15</v>
       </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="5"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="6">
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="2">
         <v>16</v>
       </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="5"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="6">
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="2">
         <v>17</v>
       </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="5"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="6">
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="1"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="2">
         <v>18</v>
       </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="5"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="5"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="5"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="5"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="5"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="1"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="1"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="1"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="1"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="B21:F21"/>
-    <mergeCell ref="B22:F22"/>
-    <mergeCell ref="B23:F23"/>
-    <mergeCell ref="B24:F24"/>
-    <mergeCell ref="B25:F25"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="B13:F13"/>
     <mergeCell ref="B26:F26"/>
     <mergeCell ref="B15:F15"/>
     <mergeCell ref="B16:F16"/>
@@ -836,18 +902,11 @@
     <mergeCell ref="B18:F18"/>
     <mergeCell ref="B19:F19"/>
     <mergeCell ref="B20:F20"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="B13:F13"/>
-    <mergeCell ref="B14:F14"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="B21:F21"/>
+    <mergeCell ref="B22:F22"/>
+    <mergeCell ref="B23:F23"/>
+    <mergeCell ref="B24:F24"/>
+    <mergeCell ref="B25:F25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Tags/Documents/Test Cases/Order Function Testing_10-1-2016.xlsx
+++ b/Tags/Documents/Test Cases/Order Function Testing_10-1-2016.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Workspace\WebApplication\Tags\Documents\Test Cases\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="11970" windowHeight="7380"/>
   </bookViews>
@@ -10,8 +15,8 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="40">
   <si>
     <t>Order food</t>
   </si>
@@ -181,12 +186,60 @@
 13. Bàn hiển thị Order đúng số tiền, đúng danh sách các món, đúng note, hiển thị thông bán 1 đã đặt món
 14. Bàn hiển thị đang đợi 2 phút</t>
   </si>
+  <si>
+    <t>Add new, edit, delete food | add new, edit, delete table</t>
+  </si>
+  <si>
+    <t>1. Thêm món cho bàn 1
+2. Vào supervisor thêm món "Trà đá vỉa hè" 5k và "Trà chanh chém gió" 10k
+3. Đặt thêm món "Trà đá vỉa hè" cho bàn 1
+4. Đặt thêm món "Trà chanh chém gió" cho bàn 1
+5. Vào supervisor sửa món "Trà chanh chém gió" thành "Trà chanh chém gió nhè nhẹ" và giá từ 10k lên 15k
+6. Thanh toán và Xuất báo cáo</t>
+  </si>
+  <si>
+    <t>3. Món "Trà đá vỉa hè" hiển thị đúng trên order của bàn 1 và trong chức năng đặt món
+4. Món "Trà chanh chém gió" hiển thị đúng trên order của bàn 1 và trong chức năng đặt món
+5. Order của bàn 1 hiển thị đúng tên và số tiền
+6. Báo cáo xuất chính xác nội dung của đặt món của bàn 1</t>
+  </si>
+  <si>
+    <t>1. Thêm món cho bàn 1 có món "Trà đá vỉa hè" và "Trà chanh chém gió nhè nhẹ"
+2. Vào supervisor xóa món "Trà đá vỉa hè" và đổi tên "Trà chanh chém gió nhè nhè" thành "Trà chanh chém gió", 15k -&gt; 10k
+3. Xuất báo cáo</t>
+  </si>
+  <si>
+    <t>2. Món trà đá vỉa hẻ đã xóa, tiền của món trà chanh chém gió giảm
+3. Báo cáo hiển thị đúng nội dung</t>
+  </si>
+  <si>
+    <t>- Đặt món A -&gt; vào supervisor xóa món A -&gt; Order hiện ra một order detail trắng ==&gt; Add state for food (enable | disable)</t>
+  </si>
+  <si>
+    <t>1. Thêm bàn 101
+2. Đặt món cho bàn 101
+3. Xuất báo cáo</t>
+  </si>
+  <si>
+    <t>3. Báo cáo hiển thị nội dung của bàn 101</t>
+  </si>
+  <si>
+    <t>- Xóa bàn 11 -&gt; xuất báo cáo bị mất bàn 11 ==&gt; add state for table
+- Bàn 11 bị xóa nhưng chưa được reload</t>
+  </si>
+  <si>
+    <t>1. Xóa bàn 101
+2. Xuất báo cáo</t>
+  </si>
+  <si>
+    <t>2. Báo cáo vẫn phải hiển thị nội dung của bàn 101</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -195,7 +248,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -205,6 +258,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -221,7 +280,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -239,22 +298,28 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -528,21 +593,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:K26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="2"/>
     <col min="6" max="6" width="32" customWidth="1"/>
@@ -550,7 +615,7 @@
     <col min="8" max="8" width="25.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>0</v>
       </c>
@@ -565,7 +630,7 @@
       <c r="J3" s="9"/>
       <c r="K3" s="9"/>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
@@ -586,17 +651,17 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="291.75" customHeight="1">
+    <row r="5" spans="1:11" ht="291.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>1</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
       <c r="G5" s="1" t="s">
         <v>28</v>
       </c>
@@ -607,17 +672,17 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="171.75" customHeight="1">
+    <row r="6" spans="1:11" ht="171.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>2</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
       <c r="G6" s="1" t="s">
         <v>6</v>
       </c>
@@ -625,17 +690,17 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="113.25" customHeight="1">
+    <row r="7" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>3</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
       <c r="G7" s="1" t="s">
         <v>8</v>
       </c>
@@ -646,17 +711,17 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="59.25" customHeight="1">
+    <row r="8" spans="1:11" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>4</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
       <c r="G8" s="1" t="s">
         <v>10</v>
       </c>
@@ -664,17 +729,17 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="58.5" customHeight="1">
+    <row r="9" spans="1:11" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>5</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
       <c r="G9" s="1" t="s">
         <v>12</v>
       </c>
@@ -682,17 +747,17 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="99" customHeight="1">
+    <row r="10" spans="1:11" ht="99" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>6</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
       <c r="G10" s="1" t="s">
         <v>14</v>
       </c>
@@ -700,17 +765,17 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="100.5" customHeight="1">
+    <row r="11" spans="1:11" ht="100.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>7</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
       <c r="G11" s="1" t="s">
         <v>16</v>
       </c>
@@ -718,183 +783,194 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="255">
+    <row r="12" spans="1:11" ht="255" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>8</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
       <c r="G12" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H12" s="11" t="s">
+      <c r="H12" s="7" t="s">
         <v>23</v>
       </c>
       <c r="K12" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="2">
-        <v>9</v>
-      </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="1"/>
-    </row>
-    <row r="14" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
+    </row>
+    <row r="14" spans="1:11" ht="127.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
-        <v>10</v>
-      </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="1"/>
-    </row>
-    <row r="15" spans="1:11">
+        <v>1</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="K14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="93" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
-        <v>11</v>
-      </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="1"/>
-    </row>
-    <row r="16" spans="1:11">
+        <v>2</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="K15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
-        <v>12</v>
-      </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="1"/>
-    </row>
-    <row r="17" spans="1:7">
+        <v>3</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="K16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
-        <v>13</v>
-      </c>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="1"/>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="2">
-        <v>14</v>
-      </c>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
+        <v>4</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="K17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="2">
-        <v>15</v>
-      </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="2">
-        <v>16</v>
-      </c>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="2">
-        <v>17</v>
-      </c>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="2">
-        <v>18</v>
-      </c>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="1:7">
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
       <c r="G23" s="1"/>
     </row>
-    <row r="24" spans="1:7">
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B24" s="12"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
       <c r="G24" s="1"/>
     </row>
-    <row r="25" spans="1:7">
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
       <c r="G25" s="1"/>
     </row>
-    <row r="26" spans="1:7">
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B26" s="12"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
       <c r="G26" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="B14:F14"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="B13:F13"/>
     <mergeCell ref="B26:F26"/>
     <mergeCell ref="B15:F15"/>
     <mergeCell ref="B16:F16"/>
@@ -907,6 +983,18 @@
     <mergeCell ref="B23:F23"/>
     <mergeCell ref="B24:F24"/>
     <mergeCell ref="B25:F25"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="A13:K13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
